--- a/biology/Botanique/Aspergette/Aspergette.xlsx
+++ b/biology/Botanique/Aspergette/Aspergette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loncomelos pyrenaicum, Ornithogalum pyrenaicum
-L'Ornithogale des Pyrénées (Ornithogalum pyrenaicum[1],[2]), appelé aussi Asperge des bois ou encore Aspergette[3], est une plante herbacée vivace de la famille des Liliacées selon la classification classique ou des Asparagacées selon la classification phylogénétique APG IV (2016)[4].
+L'Ornithogale des Pyrénées (Ornithogalum pyrenaicum,), appelé aussi Asperge des bois ou encore Aspergette, est une plante herbacée vivace de la famille des Liliacées selon la classification classique ou des Asparagacées selon la classification phylogénétique APG IV (2016).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Loncomelos pyrenaicum L.[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Loncomelos pyrenaicum L.
 Hyacinthus sulphureus Poir.
 Beryllis pyrenaica (L.) Salisb.
 Loncoxis sulfurea (Waldst. &amp; Kit.)
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante bulbeuse, aux feuilles linéaires qui disparaissent pratiquement à la floraison en laissant une hampe florale d'assez grande taille (30 à 60 cm), au sommet de laquelle, au départ, une cinquantaine de boutons floraux sont organisés en épi.
 Au fur et à mesure de l'éclosion, qui commence par la base, chaque fleur en s'épanouissant développe un pétiole qui fait évoluer cet épi en grappe grêle. Chaque fleur est blanc-verdâtre à six pétales, six étamines.
@@ -578,9 +594,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans les prairies, les talus, et les bois clairs, jusqu'à 1 000 m d'altitude, presque dans toute la France. Elle pousse sur substrats calcaires (mull calcique) à mésotrophes, bien drainant à atmosphère humide et ombre légère de chênaie[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans les prairies, les talus, et les bois clairs, jusqu'à 1 000 m d'altitude, presque dans toute la France. Elle pousse sur substrats calcaires (mull calcique) à mésotrophes, bien drainant à atmosphère humide et ombre légère de chênaie,.
 </t>
         </is>
       </c>
@@ -609,12 +627,14 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante. [8]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante. 
 Toutefois localement l'espèce peut se raréfier : elle est considérée vulnérable (VU) en Alsace ; elle est en danger-critique (CR) en Haute Normandie.
 Elle est ainsi protégée dans le Nord-Pas-de-Calais ainsi qu'en Alsace, Aquitaine, Haute-Normandie et Picardie. La cueillette, la récolte et le ramassage sont réglementés dans de nombreux départements français.
-Elle est considérée comme menacée dans toute la Suisse [9].
+Elle est considérée comme menacée dans toute la Suisse .
 </t>
         </is>
       </c>
@@ -643,7 +663,9 @@
           <t>Confusions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ne faut pas confondre le Tamier commun, l'Asperge sauvage et l'Asperge des bois. Ce sont bien des espèces différentes, bien que les noms vernaculaires soient souvent source de confusion. Ainsi on retrouve régulièrement sur les étals des Asperges des bois et du Tamier commun sous le nom d’Asperge sauvage.
 </t>
@@ -674,7 +696,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jeunes pousses sont comestibles, d'où les noms « asperge des bois » ou « aspergette » qui lui sont donnés dans certaines régions.
 			Début de floraison
